--- a/results/mp/logistic/corona/confidence/42/topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,27 +46,27 @@
     <t>kill</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -76,12 +76,12 @@
     <t>panic</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -94,148 +94,169 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
 </sst>
 </file>
@@ -593,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -712,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6551724137931034</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -780,31 +801,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="L5">
+        <v>110</v>
+      </c>
+      <c r="M5">
+        <v>110</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5">
-        <v>0.8983050847457628</v>
-      </c>
-      <c r="L5">
-        <v>53</v>
-      </c>
-      <c r="M5">
-        <v>53</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -830,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -854,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -862,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6052631578947368</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -880,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -904,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -912,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -930,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8224543080939948</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5666666666666667</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -980,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8207547169811321</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1004,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1012,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5588235294117647</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1030,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4864864864864865</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1080,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1112,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C12">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1154,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,16 +1204,16 @@
         <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7746478873239436</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L13">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1204,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1212,13 +1233,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3372093023255814</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C14">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D14">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1230,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7708333333333334</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1254,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1262,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3220338983050847</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1280,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.796875</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1304,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1312,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2909090909090909</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1330,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1354,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,16 +1404,16 @@
         <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="L17">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="M17">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1404,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1412,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2147651006711409</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1430,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1454,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.15</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1480,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7435897435897436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1504,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1512,13 +1533,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.05952380952380952</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1530,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.6744186046511628</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1554,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1562,37 +1583,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.04825737265415549</v>
+        <v>0.0067425200168563</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>355</v>
+        <v>2357</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1604,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1612,37 +1633,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005892255892255892</v>
+        <v>0.006554307116104869</v>
       </c>
       <c r="C22">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="F22">
-        <v>0.8200000000000001</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2362</v>
+        <v>2122</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1662,37 +1683,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0051513200257566</v>
+        <v>0.006121134020618557</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="F23">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3090</v>
+        <v>3085</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.6349206349206349</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1704,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1712,37 +1733,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.004387339392040113</v>
+        <v>0.00408321991055804</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D24">
+        <v>43</v>
+      </c>
+      <c r="E24">
+        <v>0.51</v>
+      </c>
+      <c r="F24">
+        <v>0.49</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5122</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="L24">
         <v>24</v>
       </c>
-      <c r="E24">
-        <v>0.42</v>
-      </c>
-      <c r="F24">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>3177</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="L24">
-        <v>17</v>
-      </c>
       <c r="M24">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1754,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1762,163 +1783,115 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.003714020427112349</v>
+        <v>0.003419147224456959</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="F25">
-        <v>0.4399999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4292</v>
+        <v>4955</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K25">
-        <v>0.6147058823529412</v>
-      </c>
-      <c r="L25">
-        <v>209</v>
-      </c>
-      <c r="M25">
-        <v>209</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.003691470759665825</v>
-      </c>
-      <c r="C26">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>37</v>
-      </c>
-      <c r="E26">
-        <v>0.49</v>
-      </c>
-      <c r="F26">
-        <v>0.51</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>5128</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L26">
-        <v>38</v>
-      </c>
-      <c r="M26">
-        <v>38</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.002815202091292982</v>
-      </c>
-      <c r="C27">
+      <c r="K27">
+        <v>0.6744186046511628</v>
+      </c>
+      <c r="L27">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>14</v>
-      </c>
-      <c r="D27">
-        <v>37</v>
-      </c>
-      <c r="E27">
-        <v>0.62</v>
-      </c>
-      <c r="F27">
-        <v>0.38</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>4959</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.5732217573221757</v>
-      </c>
-      <c r="L27">
-        <v>137</v>
-      </c>
-      <c r="M27">
-        <v>137</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1930,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5627118644067797</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L29">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1956,21 +1929,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>129</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1982,21 +1955,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2008,21 +1981,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5425531914893617</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L32">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M32">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2034,21 +2007,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5168539325842697</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="M33">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2060,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2086,47 +2059,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L35">
+        <v>15</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>13</v>
-      </c>
-      <c r="M35">
-        <v>13</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.3777777777777778</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2138,21 +2111,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.3424657534246575</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2164,21 +2137,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.2307692307692308</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2190,189 +2163,397 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.01587301587301587</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N39">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1178</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.01417004048582996</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N40">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>974</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.008170961659333752</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N41">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1578</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.004874390701162355</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N42">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2654</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.00463821892393321</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N43">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.4399999999999999</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>4292</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.004616619831393015</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N44">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>4959</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45">
+        <v>0.203125</v>
+      </c>
+      <c r="L45">
+        <v>13</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46">
+        <v>0.01834862385321101</v>
+      </c>
+      <c r="L46">
+        <v>22</v>
+      </c>
+      <c r="M46">
+        <v>23</v>
+      </c>
+      <c r="N46">
+        <v>0.96</v>
+      </c>
+      <c r="O46">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47">
+        <v>0.01005656819610308</v>
+      </c>
+      <c r="L47">
+        <v>16</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>0.84</v>
+      </c>
+      <c r="O47">
+        <v>0.16</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48">
+        <v>0.00900225056264066</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
         <v>31</v>
       </c>
-      <c r="K45">
-        <v>0.003497862417411582</v>
-      </c>
-      <c r="L45">
+      <c r="N48">
+        <v>0.77</v>
+      </c>
+      <c r="O48">
+        <v>0.23</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49">
+        <v>0.005850396991224405</v>
+      </c>
+      <c r="L49">
+        <v>14</v>
+      </c>
+      <c r="M49">
+        <v>15</v>
+      </c>
+      <c r="N49">
+        <v>0.93</v>
+      </c>
+      <c r="O49">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50">
+        <v>0.005644402634054563</v>
+      </c>
+      <c r="L50">
         <v>18</v>
       </c>
-      <c r="M45">
-        <v>37</v>
-      </c>
-      <c r="N45">
+      <c r="M50">
+        <v>30</v>
+      </c>
+      <c r="N50">
+        <v>0.6</v>
+      </c>
+      <c r="O50">
+        <v>0.4</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51">
+        <v>0.005097312326227989</v>
+      </c>
+      <c r="L51">
+        <v>22</v>
+      </c>
+      <c r="M51">
+        <v>34</v>
+      </c>
+      <c r="N51">
+        <v>0.65</v>
+      </c>
+      <c r="O51">
+        <v>0.35</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52">
+        <v>0.004820245029122314</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>41</v>
+      </c>
+      <c r="N52">
+        <v>0.59</v>
+      </c>
+      <c r="O52">
+        <v>0.41</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53">
+        <v>0.004276827371695179</v>
+      </c>
+      <c r="L53">
+        <v>22</v>
+      </c>
+      <c r="M53">
+        <v>43</v>
+      </c>
+      <c r="N53">
+        <v>0.51</v>
+      </c>
+      <c r="O53">
         <v>0.49</v>
       </c>
-      <c r="O45">
-        <v>0.51</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>5128</v>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>5122</v>
       </c>
     </row>
   </sheetData>
